--- a/asvt.xlsx
+++ b/asvt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>Номер</t>
   </si>
@@ -124,7 +124,13 @@
     <t>Пн|31</t>
   </si>
   <si>
-    <t>Суммарно за месяц</t>
+    <t>Отработано за месяц</t>
+  </si>
+  <si>
+    <t>Осталось работать</t>
+  </si>
+  <si>
+    <t>Перерасчет на каждый день</t>
   </si>
   <si>
     <t>Bespechnaya</t>
@@ -148,70 +154,100 @@
     <t>Sedmoy</t>
   </si>
   <si>
-    <t>Да</t>
+    <t>Bindasov</t>
+  </si>
+  <si>
+    <t>Tarasov</t>
+  </si>
+  <si>
+    <t>Kirill</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>11:35:31</t>
-  </si>
-  <si>
-    <t>11:27:55</t>
-  </si>
-  <si>
-    <t>12:20:35</t>
-  </si>
-  <si>
-    <t>11:19:45</t>
-  </si>
-  <si>
-    <t>12:21:58</t>
-  </si>
-  <si>
-    <t>11:32:40</t>
-  </si>
-  <si>
-    <t>0ч. 10мин. 23сек.</t>
-  </si>
-  <si>
-    <t>0ч. 10мин. 46сек.</t>
-  </si>
-  <si>
-    <t>0ч. 6мин. 27сек.</t>
-  </si>
-  <si>
-    <t>0ч. 0мин. 0сек.</t>
-  </si>
-  <si>
-    <t>0ч. 12мин. 1сек.</t>
+    <t>7ч. 20мин. 13сек.</t>
+  </si>
+  <si>
+    <t>7ч. 6мин. 18сек.</t>
+  </si>
+  <si>
+    <t>7ч. 9мин. 5сек.</t>
+  </si>
+  <si>
+    <t>5ч. 47мин. 8сек.</t>
   </si>
   <si>
     <t>0ч. 1мин. 20сек.</t>
   </si>
   <si>
-    <t>0ч. 0мин. 41сек.</t>
-  </si>
-  <si>
-    <t>0дн. 0ч. 10мин. 23сек.</t>
-  </si>
-  <si>
-    <t>0дн. 0ч. 10мин. 46сек.</t>
-  </si>
-  <si>
-    <t>0дн. 0ч. 6мин. 27сек.</t>
-  </si>
-  <si>
-    <t>0дн. 0ч. 0мин. 0сек.</t>
-  </si>
-  <si>
-    <t>0дн. 0ч. 12мин. 1сек.</t>
-  </si>
-  <si>
-    <t>0дн. 0ч. 1мин. 20сек.</t>
-  </si>
-  <si>
-    <t>0дн. 0ч. 0мин. 41сек.</t>
+    <t>0ч. 1мин. 5сек.</t>
+  </si>
+  <si>
+    <t>0ч. 11мин. 12сек.</t>
+  </si>
+  <si>
+    <t>1дн. 19ч. 50мин. 10сек.</t>
+  </si>
+  <si>
+    <t>1дн. 18ч. 40мин. 35сек.</t>
+  </si>
+  <si>
+    <t>1дн. 18ч. 54мин. 30сек.</t>
+  </si>
+  <si>
+    <t>1дн. 12ч. 4мин. 45сек.</t>
+  </si>
+  <si>
+    <t>0дн. 7ч. 15мин. 45сек.</t>
+  </si>
+  <si>
+    <t>0дн. 7ч. 14мин. 30сек.</t>
+  </si>
+  <si>
+    <t>1дн. 19ч. 5мин. 42сек.</t>
+  </si>
+  <si>
+    <t>5дн. 4ч. 9мин. 50сек.</t>
+  </si>
+  <si>
+    <t>5дн. 5ч. 19мин. 25сек.</t>
+  </si>
+  <si>
+    <t>5дн. 5ч. 5мин. 30сек.</t>
+  </si>
+  <si>
+    <t>5дн. 11ч. 55мин. 15сек.</t>
+  </si>
+  <si>
+    <t>6дн. 16ч. 44мин. 15сек.</t>
+  </si>
+  <si>
+    <t>6дн. 16ч. 45мин. 30сек.</t>
+  </si>
+  <si>
+    <t>5дн. 4ч. 54мин. 18сек.</t>
+  </si>
+  <si>
+    <t>7ч. 18мин. 13сек.</t>
+  </si>
+  <si>
+    <t>7ч. 22мин. 19сек.</t>
+  </si>
+  <si>
+    <t>7ч. 21мин. 30сек.</t>
+  </si>
+  <si>
+    <t>7ч. 45мин. 36сек.</t>
+  </si>
+  <si>
+    <t>9ч. 27мин. 18сек.</t>
+  </si>
+  <si>
+    <t>9ч. 27мин. 22сек.</t>
+  </si>
+  <si>
+    <t>7ч. 20мин. 50сек.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +619,7 @@
     <col min="37" max="37" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:39">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,682 +731,256 @@
       <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:39">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK2" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:39">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:39">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" t="s">
-        <v>55</v>
-      </c>
-      <c r="X4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AK4" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AK5" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AK6" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:39">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" t="s">
-        <v>55</v>
-      </c>
-      <c r="W7" t="s">
-        <v>55</v>
-      </c>
-      <c r="X7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK7" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:39">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>55</v>
@@ -1384,83 +994,131 @@
       <c r="K8" t="s">
         <v>55</v>
       </c>
-      <c r="L8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" t="s">
-        <v>55</v>
-      </c>
-      <c r="U8" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" t="s">
-        <v>55</v>
-      </c>
-      <c r="X8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>55</v>
-      </c>
       <c r="AK8" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
